--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/02.XuLyBH/XLBH2102_TarisHN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="19" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="108">
   <si>
     <t>STT</t>
   </si>
@@ -742,14 +742,26 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -781,26 +793,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1108,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView showZeros="0" topLeftCell="F3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1122,7 +1122,7 @@
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="81" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="68" customWidth="1"/>
     <col min="10" max="10" width="53" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="29" customWidth="1"/>
@@ -1141,46 +1141,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
-      <c r="I2" s="75"/>
+      <c r="I2" s="62"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
       <c r="L2" s="25"/>
@@ -1205,7 +1205,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="76"/>
+      <c r="I3" s="63"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
@@ -1222,58 +1222,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1295,26 +1295,26 @@
       <c r="H5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="77" t="s">
+      <c r="I5" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="H12" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="I12" s="78" t="s">
+      <c r="I12" s="65" t="s">
         <v>81</v>
       </c>
       <c r="J12" s="45" t="s">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1843,7 +1843,7 @@
       <c r="H15" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="78" t="s">
+      <c r="I15" s="65" t="s">
         <v>73</v>
       </c>
       <c r="J15" s="45" t="s">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>64</v>
       </c>
       <c r="H16" s="58"/>
-      <c r="I16" s="78"/>
+      <c r="I16" s="65"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="45" t="s">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>63</v>
       </c>
       <c r="H18" s="58"/>
-      <c r="I18" s="78" t="s">
+      <c r="I18" s="65" t="s">
         <v>75</v>
       </c>
       <c r="J18" s="1"/>
@@ -2045,7 +2045,7 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="78"/>
+      <c r="I19" s="65"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -2076,7 +2076,7 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="78"/>
+      <c r="I20" s="65"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -2108,7 +2108,7 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="78"/>
+      <c r="I21" s="65"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -2140,7 +2140,7 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="78"/>
+      <c r="I22" s="65"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="1"/>
@@ -2172,7 +2172,7 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="78"/>
+      <c r="I23" s="65"/>
       <c r="J23" s="1"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -2199,7 +2199,7 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="78"/>
+      <c r="I24" s="65"/>
       <c r="J24" s="1"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -2226,7 +2226,7 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="78"/>
+      <c r="I25" s="65"/>
       <c r="J25" s="1"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -2257,7 +2257,7 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="78"/>
+      <c r="I26" s="65"/>
       <c r="J26" s="1"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -2289,7 +2289,7 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="78"/>
+      <c r="I27" s="65"/>
       <c r="J27" s="1"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -2321,7 +2321,7 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="78"/>
+      <c r="I28" s="65"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="11"/>
@@ -2353,7 +2353,7 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="78"/>
+      <c r="I29" s="65"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="11"/>
@@ -2385,7 +2385,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="78"/>
+      <c r="I30" s="65"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2417,7 +2417,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="78"/>
+      <c r="I31" s="65"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2449,7 +2449,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="78"/>
+      <c r="I32" s="65"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2481,7 +2481,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="78"/>
+      <c r="I33" s="65"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2513,7 +2513,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="78"/>
+      <c r="I34" s="65"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2545,7 +2545,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="78"/>
+      <c r="I35" s="65"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2577,7 +2577,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="78"/>
+      <c r="I36" s="65"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2609,7 +2609,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="78"/>
+      <c r="I37" s="65"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2641,7 +2641,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="78"/>
+      <c r="I38" s="65"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2668,7 +2668,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="78"/>
+      <c r="I39" s="65"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2695,7 +2695,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="78"/>
+      <c r="I40" s="65"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2727,7 +2727,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="78"/>
+      <c r="I41" s="65"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2759,7 +2759,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="78"/>
+      <c r="I42" s="65"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2786,7 +2786,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="78"/>
+      <c r="I43" s="65"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2813,7 +2813,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="78"/>
+      <c r="I44" s="65"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2849,7 +2849,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="78"/>
+      <c r="I45" s="65"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2888,7 +2888,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="78"/>
+      <c r="I46" s="65"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2927,7 +2927,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="78"/>
+      <c r="I47" s="65"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2966,7 +2966,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="78"/>
+      <c r="I48" s="65"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -3008,7 +3008,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="78"/>
+      <c r="I49" s="65"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -3036,7 +3036,7 @@
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
       <c r="H50" s="37"/>
-      <c r="I50" s="79"/>
+      <c r="I50" s="66"/>
       <c r="J50" s="37"/>
       <c r="K50" s="37"/>
       <c r="L50" s="37"/>
@@ -3064,7 +3064,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="78"/>
+      <c r="I51" s="65"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -3092,7 +3092,7 @@
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
       <c r="H52" s="38"/>
-      <c r="I52" s="80"/>
+      <c r="I52" s="67"/>
       <c r="J52" s="38"/>
       <c r="K52" s="38"/>
       <c r="L52" s="39"/>
@@ -3120,7 +3120,7 @@
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
       <c r="H53" s="38"/>
-      <c r="I53" s="80"/>
+      <c r="I53" s="67"/>
       <c r="J53" s="38"/>
       <c r="K53" s="38"/>
       <c r="L53" s="39"/>
@@ -3148,7 +3148,7 @@
       <c r="F54" s="38"/>
       <c r="G54" s="38"/>
       <c r="H54" s="38"/>
-      <c r="I54" s="80"/>
+      <c r="I54" s="67"/>
       <c r="J54" s="38"/>
       <c r="K54" s="38"/>
       <c r="L54" s="39"/>
@@ -3176,7 +3176,7 @@
       <c r="F55" s="38"/>
       <c r="G55" s="38"/>
       <c r="H55" s="38"/>
-      <c r="I55" s="80"/>
+      <c r="I55" s="67"/>
       <c r="J55" s="38"/>
       <c r="K55" s="38"/>
       <c r="L55" s="39"/>
@@ -3205,6 +3205,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -3218,11 +3223,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3233,8 +3233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3266,43 +3266,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -3347,58 +3347,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -3423,23 +3423,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3485,7 +3485,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3542,7 +3542,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3571,7 +3571,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3600,7 +3600,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3629,7 +3629,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3658,7 +3658,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3687,7 +3687,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3718,7 +3718,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3747,7 +3747,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3776,7 +3776,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3805,7 +3805,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5036,13 +5036,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5054,6 +5047,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5064,8 +5064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5097,43 +5097,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -5178,58 +5178,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -5254,23 +5254,23 @@
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5324,7 +5324,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5355,7 +5355,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5384,7 +5384,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5413,7 +5413,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5442,7 +5442,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5471,7 +5471,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5500,7 +5500,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5531,7 +5531,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5560,7 +5560,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5589,7 +5589,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5618,7 +5618,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6849,6 +6849,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6860,13 +6867,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6877,8 +6877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6910,43 +6910,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -6991,58 +6991,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="69"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="69" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -7067,49 +7067,75 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="74"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
       <c r="W5" s="56"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="42">
+        <v>44246</v>
+      </c>
+      <c r="C6" s="42">
+        <v>44249</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="44">
+        <v>868183034641089</v>
+      </c>
       <c r="F6" s="58"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="59"/>
+      <c r="G6" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="59" t="s">
+        <v>78</v>
+      </c>
       <c r="J6" s="45"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="K6" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7121,26 +7147,50 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
+      <c r="B7" s="42">
+        <v>44246</v>
+      </c>
+      <c r="C7" s="42">
+        <v>44249</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="44">
+        <v>868183035877476</v>
+      </c>
       <c r="F7" s="58"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="60"/>
+      <c r="G7" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="58"/>
+      <c r="I7" s="60" t="s">
+        <v>73</v>
+      </c>
       <c r="J7" s="45"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="43"/>
+      <c r="L7" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="80"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7150,26 +7200,52 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
+      <c r="B8" s="42">
+        <v>44246</v>
+      </c>
+      <c r="C8" s="42">
+        <v>44249</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="61">
+        <v>868183035871289</v>
+      </c>
       <c r="F8" s="58"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="60"/>
+      <c r="G8" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="60" t="s">
+        <v>73</v>
+      </c>
       <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
+      <c r="K8" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>86</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="43"/>
+      <c r="O8" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7179,26 +7255,52 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="60"/>
+      <c r="B9" s="42">
+        <v>44246</v>
+      </c>
+      <c r="C9" s="42">
+        <v>44249</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="44">
+        <v>868183035872717</v>
+      </c>
+      <c r="F9" s="58"/>
+      <c r="G9" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="58"/>
+      <c r="I9" s="60" t="s">
+        <v>76</v>
+      </c>
       <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
+      <c r="K9" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>86</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="43"/>
+      <c r="O9" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="80"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7208,26 +7310,52 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="1"/>
+      <c r="B10" s="42">
+        <v>44246</v>
+      </c>
+      <c r="C10" s="42">
+        <v>44249</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="44">
+        <v>868183033833554</v>
+      </c>
+      <c r="F10" s="58"/>
+      <c r="G10" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
+      <c r="M10" s="45" t="s">
+        <v>97</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="43"/>
+      <c r="O10" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="80"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7237,26 +7365,54 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
+      <c r="B11" s="42">
+        <v>44246</v>
+      </c>
+      <c r="C11" s="42">
+        <v>44249</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="44">
+        <v>868183034677463</v>
+      </c>
+      <c r="F11" s="58"/>
+      <c r="G11" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="58"/>
+      <c r="I11" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" s="45" t="s">
+        <v>97</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="43"/>
+      <c r="O11" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7266,26 +7422,54 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="45"/>
+      <c r="B12" s="42">
+        <v>44246</v>
+      </c>
+      <c r="C12" s="42">
+        <v>44249</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="44">
+        <v>868183038489048</v>
+      </c>
+      <c r="F12" s="58"/>
+      <c r="G12" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>83</v>
+      </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
+      <c r="L12" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="43"/>
+      <c r="O12" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R12" s="43" t="s">
+        <v>107</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7297,26 +7481,56 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="1"/>
+      <c r="B13" s="42">
+        <v>44246</v>
+      </c>
+      <c r="C13" s="42">
+        <v>44249</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="44">
+        <v>868183034813639</v>
+      </c>
+      <c r="F13" s="58"/>
+      <c r="G13" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="11"/>
+      <c r="O13" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="80"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7326,26 +7540,50 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="45"/>
+      <c r="B14" s="42">
+        <v>44246</v>
+      </c>
+      <c r="C14" s="42">
+        <v>44249</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="44">
+        <v>868183035891121</v>
+      </c>
+      <c r="F14" s="58"/>
+      <c r="G14" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="43"/>
+      <c r="I14" s="60" t="s">
+        <v>82</v>
+      </c>
       <c r="J14" s="45"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
+      <c r="L14" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" s="45" t="s">
+        <v>86</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="43"/>
+      <c r="O14" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="80"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7355,26 +7593,56 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
+      <c r="B15" s="42">
+        <v>44246</v>
+      </c>
+      <c r="C15" s="42">
+        <v>44249</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="44">
+        <v>868183037835290</v>
+      </c>
+      <c r="F15" s="58"/>
+      <c r="G15" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" s="45" t="s">
+        <v>95</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="43"/>
+      <c r="O15" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="80"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7384,26 +7652,48 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="B16" s="42">
+        <v>44246</v>
+      </c>
+      <c r="C16" s="42">
+        <v>44249</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="44">
+        <v>868183037870552</v>
+      </c>
+      <c r="F16" s="58"/>
+      <c r="G16" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="58"/>
+      <c r="I16" s="65"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
+      <c r="L16" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="45" t="s">
+        <v>86</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="43"/>
+      <c r="O16" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="81"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7413,23 +7703,47 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
+      <c r="B17" s="42">
+        <v>44246</v>
+      </c>
+      <c r="C17" s="42">
+        <v>44249</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="44">
+        <v>868183038477753</v>
+      </c>
+      <c r="F17" s="58"/>
+      <c r="G17" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="58"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="45" t="s">
+        <v>68</v>
+      </c>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="45"/>
+      <c r="L17" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" s="45" t="s">
+        <v>69</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="43"/>
+      <c r="O17" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="43" t="s">
+        <v>30</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="16"/>
       <c r="U17" s="49"/>
@@ -7440,23 +7754,49 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="B18" s="42">
+        <v>44246</v>
+      </c>
+      <c r="C18" s="42">
+        <v>44249</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="44">
+        <v>868183035946669</v>
+      </c>
+      <c r="F18" s="58"/>
+      <c r="G18" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="58"/>
+      <c r="I18" s="65" t="s">
+        <v>75</v>
+      </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="11"/>
+      <c r="K18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18" s="45" t="s">
+        <v>86</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="11"/>
+      <c r="O18" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="43" t="s">
+        <v>24</v>
+      </c>
       <c r="S18" s="4"/>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
@@ -7467,23 +7807,43 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="11"/>
+      <c r="B19" s="42">
+        <v>44246</v>
+      </c>
+      <c r="C19" s="42">
+        <v>44249</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="44">
+        <v>868926033992360</v>
+      </c>
+      <c r="F19" s="58"/>
+      <c r="G19" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="43"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="48"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="N19" s="47"/>
+      <c r="O19" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R19" s="43"/>
       <c r="S19" s="4"/>
       <c r="T19" s="16"/>
       <c r="U19" s="50" t="s">
@@ -7498,23 +7858,49 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="11"/>
+      <c r="B20" s="42">
+        <v>44246</v>
+      </c>
+      <c r="C20" s="42">
+        <v>44249</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="44">
+        <v>864811031290302</v>
+      </c>
+      <c r="F20" s="58"/>
+      <c r="G20" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="43"/>
+      <c r="I20" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="45"/>
+      <c r="K20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="M20" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P20" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R20" s="43" t="s">
+        <v>89</v>
+      </c>
       <c r="S20" s="4"/>
       <c r="T20" s="16"/>
       <c r="U20" s="11" t="s">
@@ -7522,7 +7908,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -7530,23 +7916,51 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
+      <c r="B21" s="42">
+        <v>44246</v>
+      </c>
+      <c r="C21" s="42">
+        <v>44249</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="44">
+        <v>864811037274904</v>
+      </c>
       <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="11"/>
+      <c r="G21" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="43"/>
+      <c r="I21" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N21" s="47"/>
+      <c r="O21" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="S21" s="4"/>
       <c r="T21" s="16"/>
       <c r="U21" s="11" t="s">
@@ -7554,7 +7968,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -7586,7 +8000,7 @@
       </c>
       <c r="V22" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W22" s="16"/>
     </row>
@@ -7735,7 +8149,7 @@
       </c>
       <c r="V27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="16"/>
     </row>
@@ -7767,7 +8181,7 @@
       </c>
       <c r="V28" s="11">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="16"/>
     </row>
@@ -7863,7 +8277,7 @@
       </c>
       <c r="V31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W31" s="16"/>
     </row>
@@ -7991,7 +8405,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -8023,7 +8437,7 @@
       </c>
       <c r="V36" s="11">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="16"/>
     </row>
@@ -8055,7 +8469,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -8173,7 +8587,7 @@
       </c>
       <c r="V41" s="11">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W41" s="16"/>
     </row>
@@ -8295,7 +8709,7 @@
       </c>
       <c r="V45" s="11">
         <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W45" s="11">
         <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
@@ -8408,7 +8822,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="40">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="11" t="s">
         <v>58</v>
@@ -8634,13 +9048,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8652,6 +9059,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
